--- a/pred_ohlcv/54_21/2019-10-27 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1855625.4381</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1855625.4381</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1914539.896</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1914539.896</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1914539.896</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1909539.896</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1890819.3382</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1903319.3382</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1900647.2544</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1892621.4463</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1892661.4463</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1868225.6344</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1867927.4213</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1863877.1778</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1452136.165405601</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1508018.671605601</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>12851831.7324056</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>12851831.7324056</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>12846631.7324056</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>12845990.6049056</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>17258990.6049056</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>17258990.6049056</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>15588035.7972056</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>17940035.7972056</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>17935899.8386056</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>17488067.28800919</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>10468772.73180133</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>10469947.80770133</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>10200665.42710133</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>10762035.41030133</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>10751429.87170133</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>18200388.55610133</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>18220011.83478985</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>18220011.83478985</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>18220011.83478985</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>18213518.68748985</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>18213622.27538985</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>15242695.27538985</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>15242564.77148985</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>15242564.77148985</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>15242593.14348985</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>14755614.10147463</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>14780698.32507463</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>14090698.32507463</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>14057656.02667463</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>14075814.73747463</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>14075814.73747463</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>14066682.38077463</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>14069477.0402402</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>14069477.0402402</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>14068546.6649402</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>14068546.6649402</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>14045145.3079402</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>14003320.1918402</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>14012888.9418402</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>14012888.9418402</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>14012888.9418402</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>14039846.7457402</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>14018823.3748402</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>14018823.3748402</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>14024116.6541402</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>14020429.9654402</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>14033799.4234402</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>14073548.1748402</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>14073548.1748402</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>14073548.1748402</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>14073548.1748402</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>14086512.0761402</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>14086512.0761402</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>14086512.0761402</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>14098136.9867402</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>14097728.4192402</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>14123527.0324402</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>14116695.0816402</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>14042761.8559402</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>14042761.8559402</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>14249781.5591402</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>14172816.3511402</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>14228541.5103402</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>14229175.1151402</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>14230915.7088402</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>14167824.3088402</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>14167824.3088402</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>14015879.3360402</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>14017378.3810402</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>13977970.6759402</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>13977970.6759402</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>14027343.5767402</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>14058221.4014402</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>14058221.4014402</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>13951514.4428402</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>13951514.4428402</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>14074096.6730402</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>14074096.6730402</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>14147507.8153402</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>14007780.8755402</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>14012176.2367402</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>14012176.2367402</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>13960361.3305402</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>13989563.7705402</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>13989563.7705402</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>13989563.7705402</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>13990704.9916402</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>14069081.4376402</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>14060203.0417402</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>14060203.0417402</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>14055999.7561402</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>14079358.1071402</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>14084303.1577402</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>14084303.1577402</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>14054396.9042402</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>14054396.9042402</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>14068192.1327402</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>14068192.1327402</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>14067266.4287402</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>14067266.4287402</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>14113599.4792402</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>14112931.4792402</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>14100923.1166402</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>14137119.7686402</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>14106277.4516402</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>14106277.4516402</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>14102528.3696402</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>14102528.3696402</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>14102528.3696402</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>14102528.3696402</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>14094529.7189402</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>14094529.7189402</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>14043256.7023402</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 XLM ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>1909539.896</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1890819.3382</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1895968.6344</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1868225.6344</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1867927.4213</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1863877.1778</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1497706.351605601</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1497062.451605601</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1497062.451605601</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1497074.468105601</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1497074.468105601</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1508018.671605601</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1563339.686805601</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1541049.765805601</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1543205.765805601</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1543379.600105601</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1564185.184505601</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>12851831.7324056</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>12851831.7324056</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>12846631.7324056</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>12845990.6049056</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>17258990.6049056</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>17258990.6049056</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>15588035.7972056</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>17940035.7972056</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>17935899.8386056</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>17488067.28800919</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>10469947.80770133</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>10199947.80770133</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>10200665.42710133</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>10762035.41030133</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>10751429.87170133</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>10751429.87170133</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>18200388.55610133</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>18200611.83478985</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>18220011.83478985</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>18220011.83478985</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>18220011.83478985</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>18213518.68748985</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>18213622.27538985</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>15242695.27538985</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>15242564.77148985</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>15242564.77148985</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>15242593.14348985</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>14090698.32507463</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>14073548.1748402</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>14073548.1748402</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>14073548.1748402</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>14086512.0761402</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>14086512.0761402</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>14086512.0761402</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>14098136.9867402</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>14097728.4192402</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>14123527.0324402</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>14116695.0816402</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>14042761.8559402</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>14042761.8559402</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>14249781.5591402</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>14172816.3511402</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>14228541.5103402</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>14229175.1151402</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>14230915.7088402</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>14167824.3088402</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>14167824.3088402</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>14015879.3360402</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>14017378.3810402</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>13977970.6759402</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>13977970.6759402</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>14058221.4014402</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>13951514.4428402</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>13951514.4428402</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>14074096.6730402</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>14147507.8153402</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>14007780.8755402</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>14012176.2367402</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>14012176.2367402</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>13960361.3305402</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>13989563.7705402</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>13989563.7705402</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>13989563.7705402</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>13990704.9916402</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>14069081.4376402</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>14060203.0417402</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>14060203.0417402</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>14055999.7561402</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>14079358.1071402</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>14084303.1577402</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>14084303.1577402</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>14054396.9042402</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>14054396.9042402</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>14068192.1327402</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>14068192.1327402</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>14067266.4287402</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>14067266.4287402</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>14113599.4792402</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>14112931.4792402</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>14100923.1166402</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>14137119.7686402</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>14106277.4516402</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>14106277.4516402</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>14102528.3696402</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>14102528.3696402</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>14102528.3696402</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>14094529.7189402</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
